--- a/Холодильники_шаблон_пустой_Wildberries.xlsx
+++ b/Холодильники_шаблон_пустой_Wildberries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\test\my-poisk\progect-marketpleys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15C701-761B-4BCD-A0F8-42C99A2EE90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036F998-E842-4F20-A4CE-151D3AF73249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="780" windowWidth="22416" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="60" windowWidth="22416" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Товары" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>Основная информация</t>
   </si>
@@ -454,12 +454,6 @@
   </si>
   <si>
     <t>2000065747</t>
-  </si>
-  <si>
-    <t>2000075756</t>
-  </si>
-  <si>
-    <t>2000073632</t>
   </si>
 </sst>
 </file>
@@ -938,44 +932,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,7 +1192,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B7"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1227,81 +1221,81 @@
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="40" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
       <c r="AN1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="42" t="s">
+      <c r="AO1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="42" t="s">
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="42" t="s">
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
       <c r="BI1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BJ1" s="42" t="s">
+      <c r="BJ1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41"/>
-      <c r="BO1" s="41"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BP1" s="42"/>
+      <c r="BQ1" s="42"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -1342,81 +1336,81 @@
       <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
       <c r="Y2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
       <c r="AC2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
       <c r="AN2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
       <c r="AV2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
       <c r="BC2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
       <c r="BI2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="BJ2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
+      <c r="BK2" s="42"/>
+      <c r="BL2" s="42"/>
+      <c r="BM2" s="42"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
       <c r="BR2" s="4"/>
       <c r="BS2" s="4"/>
       <c r="BT2" s="4"/>
@@ -1890,7 +1884,7 @@
     </row>
     <row r="5" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="40" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="12"/>
@@ -1983,9 +1977,7 @@
     </row>
     <row r="6" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="56" t="s">
-        <v>118</v>
-      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -2076,9 +2068,7 @@
     </row>
     <row r="7" spans="1:89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="56" t="s">
-        <v>119</v>
-      </c>
+      <c r="B7" s="40"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
@@ -38951,16 +38941,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -38981,16 +38971,16 @@
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -39011,16 +39001,16 @@
       <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -39041,16 +39031,16 @@
       <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -39071,16 +39061,16 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -39101,16 +39091,16 @@
       <c r="Z5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -39131,16 +39121,16 @@
       <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -39341,14 +39331,14 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -39397,16 +39387,16 @@
       <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -39427,16 +39417,16 @@
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -39457,16 +39447,16 @@
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -39487,16 +39477,16 @@
       <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
@@ -39517,16 +39507,16 @@
       <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
@@ -39547,16 +39537,16 @@
       <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>

--- a/Холодильники_шаблон_пустой_Wildberries.xlsx
+++ b/Холодильники_шаблон_пустой_Wildberries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\test\my-poisk\progect-marketpleys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036F998-E842-4F20-A4CE-151D3AF73249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB3397D-D4EC-4C66-B230-FFC19350D4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="60" windowWidth="22416" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22416" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Товары" sheetId="1" r:id="rId1"/>
@@ -1192,7 +1192,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
